--- a/___Marketing-Notas___/Tareas/EjerciciosMargenyMarkUp.xlsx
+++ b/___Marketing-Notas___/Tareas/EjerciciosMargenyMarkUp.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giancarlo Poggio\Google Drive\Varios GPE (archivos)\Clases Universidades\UFM - Trade Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Marketing-Notas___\Tareas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A014BC-29E2-4016-A08C-DDDD8FEB4F02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35048CB0-D7BE-41D8-A88D-189ADD6EC317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{2F5780DD-D7A9-4F80-B86F-650D37717CB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F5780DD-D7A9-4F80-B86F-650D37717CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -968,23 +970,23 @@
   <dimension ref="B3:I25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.06640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" customWidth="1"/>
-    <col min="6" max="6" width="5.19921875" customWidth="1"/>
-    <col min="7" max="9" width="13.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="9" width="13.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1006,12 +1008,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>1.234762979683973</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1043,7 +1045,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>0.88199389623601232</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1075,7 +1077,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1107,7 +1109,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>4</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>0.16666666666666674</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1139,7 +1141,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>5</v>
       </c>
@@ -1163,7 +1165,7 @@
         <v>1.3076923076923075</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1171,7 +1173,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>6</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1203,7 +1205,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>7</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1235,7 +1237,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>8</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>1.8090909090909091</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1267,7 +1269,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>9</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>0.76767676767676774</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1299,7 +1301,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>10</v>
       </c>
@@ -1323,7 +1325,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
